--- a/Numerical examples/Test Function Optimization/testFunc_result.xlsx
+++ b/Numerical examples/Test Function Optimization/testFunc_result.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BC\Documents\GitHub\Seminar\Numerical examples\Test Function Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BABEC4-1419-4B75-A6E1-98DE4C88612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B390B-86CE-4DC7-8B2C-33E53253B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26B334B5-7EC8-4F00-B794-38F455FFF092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{26B334B5-7EC8-4F00-B794-38F455FFF092}"/>
   </bookViews>
   <sheets>
     <sheet name="Grad" sheetId="1" r:id="rId1"/>
     <sheet name="Newt" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Grad!$O$2:$O$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Grad!$O$2:$O$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Newt!$N$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Newt!$N$2:$N$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Newt!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Newt!$N$2:$N$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Newt!$N$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Newt!$N$2:$N$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Newt!$N$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Newt!$N$2:$N$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -142,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -211,6 +223,1605 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t>Gradient Descent: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-HK" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>𝑥</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-HK" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>𝑎𝑙𝑔𝑜𝑟𝑖𝑡ℎ𝑚 − 𝑥</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-HK" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>𝑚𝑖𝑛</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-HK" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2B84873F-059A-4B81-9878-262ED420C5D8}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t>Newton's</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t>Method: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-HK" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>𝑥_𝑎𝑙𝑔𝑜𝑟𝑖𝑡ℎ𝑚 − 𝑥_𝑚𝑖𝑛</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DC7C153B-B583-4B45-AB31-D3DDEA43881C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>xopt-xmin</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="圖表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9851F615-BADD-4D2E-BB2A-BFA3E5CC8AF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5924550" y="1438275"/>
+              <a:ext cx="5324475" cy="4719637"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="圖表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60DC15E-2800-4124-83AE-152B72C7302D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5233987" y="2424112"/>
+              <a:ext cx="3624263" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F82CB0-F6DD-4CE8-A0FC-761206C8C0CA}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:Q49"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1443,7 +3054,7 @@
         <v>-2.0626099999999998</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O52" si="4">SQRT((E21-K21)^2+(F21-L21)^2)</f>
+        <f t="shared" ref="O21:O29" si="4">SQRT((E21-K21)^2+(F21-L21)^2)</f>
         <v>9.0071194063363266E-3</v>
       </c>
       <c r="P21">
@@ -1841,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="O31" t="e">
-        <f t="shared" ref="O31:O52" si="6">SQRT((E31-K31)^2+(F31-L31)^2)</f>
+        <f t="shared" ref="O31:O34" si="6">SQRT((E31-K31)^2+(F31-L31)^2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="P31" t="e">
@@ -2043,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O52" si="8">SQRT((E36-K36)^2+(F36-L36)^2)</f>
+        <f t="shared" ref="O36:O47" si="8">SQRT((E36-K36)^2+(F36-L36)^2)</f>
         <v>2.5597265478953021E-2</v>
       </c>
       <c r="P36">
@@ -2737,6 +4348,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2744,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF168B-45BD-4170-9AE7-419328D2A33F}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3619,5 +5231,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>